--- a/China Lake_Mean.xlsx
+++ b/China Lake_Mean.xlsx
@@ -509,7 +509,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00389</v>
+        <v>0.003785</v>
       </c>
       <c r="H2" t="n">
         <v>13.3</v>
@@ -542,10 +542,10 @@
         <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00531</v>
+        <v>0.004889999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>16.55</v>
+        <v>17.7</v>
       </c>
       <c r="I3" t="n">
         <v>0.0135</v>
@@ -575,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00629</v>
+        <v>0.006355</v>
       </c>
       <c r="H4" t="n">
         <v>19.4</v>
@@ -608,10 +608,10 @@
         <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01755</v>
+        <v>0.01531</v>
       </c>
       <c r="H5" t="n">
-        <v>22.16667</v>
+        <v>21.5</v>
       </c>
       <c r="I5" t="n">
         <v>0.017</v>
@@ -641,10 +641,10 @@
         <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02357</v>
+        <v>0.0251</v>
       </c>
       <c r="H6" t="n">
-        <v>19.76667</v>
+        <v>20.8</v>
       </c>
       <c r="I6" t="n">
         <v>0.01925</v>
@@ -674,13 +674,13 @@
         <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02959</v>
+        <v>0.03489</v>
       </c>
       <c r="H7" t="n">
-        <v>17.36667</v>
+        <v>20.1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0215</v>
+        <v>0.02150000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -707,7 +707,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02434</v>
+        <v>0.03042</v>
       </c>
       <c r="H8" t="n">
         <v>14.8</v>
@@ -740,7 +740,7 @@
         <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03673</v>
+        <v>0.03744500000000001</v>
       </c>
       <c r="H9" t="n">
         <v>17.2</v>
@@ -773,13 +773,13 @@
         <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00756</v>
+        <v>0.00625</v>
       </c>
       <c r="H10" t="n">
         <v>20.3</v>
       </c>
       <c r="I10" t="n">
-        <v>0.019</v>
+        <v>0.0185</v>
       </c>
     </row>
     <row r="11">
@@ -806,13 +806,13 @@
         <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02156</v>
+        <v>0.01589</v>
       </c>
       <c r="H11" t="n">
-        <v>20.03333</v>
+        <v>20.175</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01967</v>
+        <v>0.019875</v>
       </c>
     </row>
     <row r="12">
@@ -839,7 +839,7 @@
         <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03556</v>
+        <v>0.02553</v>
       </c>
       <c r="H12" t="n">
         <v>18.8</v>
@@ -872,7 +872,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04956000000000001</v>
+        <v>0.03516999999999999</v>
       </c>
       <c r="H13" t="n">
         <v>14.3</v>
@@ -905,13 +905,13 @@
         <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0058</v>
+        <v>0.007</v>
       </c>
       <c r="H14" t="n">
-        <v>12.25</v>
+        <v>13.5</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01975</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="15">
@@ -941,10 +941,10 @@
         <v>0.0046</v>
       </c>
       <c r="H15" t="n">
-        <v>16.45</v>
+        <v>18.1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01733</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="16">
@@ -971,7 +971,7 @@
         <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0068</v>
+        <v>0.00805</v>
       </c>
       <c r="H16" t="n">
         <v>19.6</v>
@@ -1004,13 +1004,13 @@
         <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01866</v>
+        <v>0.02013333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>20.73333</v>
+        <v>20.46666666666667</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01633</v>
+        <v>0.01633333333333334</v>
       </c>
     </row>
     <row r="18">
@@ -1037,7 +1037,7 @@
         <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01725</v>
+        <v>0.0176</v>
       </c>
       <c r="H18" t="n">
         <v>19.1</v>
@@ -1103,13 +1103,13 @@
         <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>0.002</v>
+        <v>0.003700000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>11.9</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02166999999999999</v>
+        <v>0.02166666666666667</v>
       </c>
     </row>
     <row r="21">
@@ -1136,7 +1136,7 @@
         <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00532</v>
+        <v>0.0051</v>
       </c>
       <c r="H21" t="n">
         <v>12.1</v>
@@ -1169,13 +1169,13 @@
         <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00619</v>
+        <v>0.0065</v>
       </c>
       <c r="H22" t="n">
-        <v>18.76667</v>
+        <v>18.76666666666667</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01433</v>
+        <v>0.01433333333333334</v>
       </c>
     </row>
     <row r="23">
@@ -1202,13 +1202,13 @@
         <v>7</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01622</v>
+        <v>0.01796666666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>20.15</v>
+        <v>20.6</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01533</v>
+        <v>0.01533333333333333</v>
       </c>
     </row>
     <row r="24">
@@ -1235,10 +1235,10 @@
         <v>7</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01327</v>
+        <v>0.0127</v>
       </c>
       <c r="H24" t="n">
-        <v>19.65</v>
+        <v>18.8</v>
       </c>
       <c r="I24" t="n">
         <v>0.017</v>
@@ -1268,13 +1268,13 @@
         <v>7</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01032</v>
+        <v>0.00743333333333333</v>
       </c>
       <c r="H25" t="n">
         <v>15.1</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01867</v>
+        <v>0.01866666666666667</v>
       </c>
     </row>
     <row r="26">
@@ -1301,10 +1301,10 @@
         <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00513</v>
+        <v>0.005333333333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="I26" t="n">
         <v>0.018</v>
@@ -1334,13 +1334,13 @@
         <v>7</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0033</v>
+        <v>0.003066666666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>15.45</v>
+        <v>15.56666666666667</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01433</v>
+        <v>0.01433333333333333</v>
       </c>
     </row>
     <row r="28">
@@ -1367,7 +1367,7 @@
         <v>7</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0044</v>
+        <v>0.0043</v>
       </c>
       <c r="H28" t="n">
         <v>21.7</v>
@@ -1400,7 +1400,7 @@
         <v>7</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01635</v>
+        <v>0.0173</v>
       </c>
       <c r="H29" t="n">
         <v>21</v>
@@ -1433,13 +1433,13 @@
         <v>7</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0307</v>
+        <v>0.0318</v>
       </c>
       <c r="H30" t="n">
-        <v>19.8</v>
+        <v>20.4</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01833</v>
+        <v>0.0185</v>
       </c>
     </row>
     <row r="31">
@@ -1466,13 +1466,13 @@
         <v>7</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02555</v>
+        <v>0.0266</v>
       </c>
       <c r="H31" t="n">
-        <v>16.35</v>
+        <v>14.4</v>
       </c>
       <c r="I31" t="n">
-        <v>0.02133</v>
+        <v>0.0225</v>
       </c>
     </row>
     <row r="32">
@@ -1532,7 +1532,7 @@
         <v>7</v>
       </c>
       <c r="G33" t="n">
-        <v>0.002585</v>
+        <v>0.0024</v>
       </c>
       <c r="H33" t="n">
         <v>16.25</v>
@@ -1565,7 +1565,7 @@
         <v>7</v>
       </c>
       <c r="G34" t="n">
-        <v>0.00517</v>
+        <v>0.0048</v>
       </c>
       <c r="H34" t="n">
         <v>19.55</v>
@@ -1598,13 +1598,13 @@
         <v>7</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0118</v>
+        <v>0.0116</v>
       </c>
       <c r="H35" t="n">
         <v>20.2</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01467</v>
+        <v>0.0155</v>
       </c>
     </row>
     <row r="36">
@@ -1631,13 +1631,13 @@
         <v>7</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0182</v>
+        <v>0.0161</v>
       </c>
       <c r="H36" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="I36" t="n">
-        <v>0.017</v>
+        <v>0.0175</v>
       </c>
     </row>
     <row r="37">
@@ -1667,10 +1667,10 @@
         <v>0.0137</v>
       </c>
       <c r="H37" t="n">
-        <v>12.65</v>
+        <v>14.3</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="38">
@@ -1697,7 +1697,7 @@
         <v>7</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0069</v>
+        <v>0.006900000000000001</v>
       </c>
       <c r="H38" t="n">
         <v>9.9</v>
@@ -1730,10 +1730,10 @@
         <v>7</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00498</v>
+        <v>0.004933333333333334</v>
       </c>
       <c r="H39" t="n">
-        <v>11.26667</v>
+        <v>11.26666666666667</v>
       </c>
       <c r="I39" t="n">
         <v>0.02</v>
@@ -1763,7 +1763,7 @@
         <v>7</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01055</v>
+        <v>0.01095</v>
       </c>
       <c r="H40" t="n">
         <v>14.15</v>
@@ -1796,7 +1796,7 @@
         <v>7</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01268</v>
+        <v>0.0143</v>
       </c>
       <c r="H41" t="n">
         <v>17.45</v>
@@ -1829,7 +1829,7 @@
         <v>7</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01345</v>
+        <v>0.013</v>
       </c>
       <c r="H42" t="n">
         <v>19.6</v>
@@ -1862,7 +1862,7 @@
         <v>7</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0125</v>
+        <v>0.013</v>
       </c>
       <c r="H43" t="n">
         <v>17</v>
@@ -1898,7 +1898,7 @@
         <v>0.0032</v>
       </c>
       <c r="H44" t="n">
-        <v>12.4</v>
+        <v>13.9</v>
       </c>
       <c r="I44" t="n">
         <v>0.0135</v>
@@ -1928,7 +1928,7 @@
         <v>7</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00762</v>
+        <v>0.006650000000000001</v>
       </c>
       <c r="H45" t="n">
         <v>16.85</v>
@@ -1961,7 +1961,7 @@
         <v>7</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01077</v>
+        <v>0.01155</v>
       </c>
       <c r="H46" t="n">
         <v>19.3</v>
@@ -1994,7 +1994,7 @@
         <v>7</v>
       </c>
       <c r="G47" t="n">
-        <v>0.028</v>
+        <v>0.031</v>
       </c>
       <c r="H47" t="n">
         <v>21.15</v>
@@ -2027,7 +2027,7 @@
         <v>7</v>
       </c>
       <c r="G48" t="n">
-        <v>0.021</v>
+        <v>0.0225</v>
       </c>
       <c r="H48" t="n">
         <v>18.175</v>
@@ -2093,10 +2093,10 @@
         <v>7</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00635</v>
+        <v>0.006900000000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>9.85</v>
+        <v>12</v>
       </c>
       <c r="I50" t="n">
         <v>0.014</v>
@@ -2126,13 +2126,13 @@
         <v>7</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00765</v>
+        <v>0.008</v>
       </c>
       <c r="H51" t="n">
-        <v>13.3</v>
+        <v>13.9</v>
       </c>
       <c r="I51" t="n">
-        <v>0.014</v>
+        <v>0.0155</v>
       </c>
     </row>
     <row r="52">
@@ -2162,10 +2162,10 @@
         <v>0.014</v>
       </c>
       <c r="H52" t="n">
-        <v>17.65</v>
+        <v>17.8</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0165</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="53">
@@ -2225,13 +2225,13 @@
         <v>7</v>
       </c>
       <c r="G54" t="n">
-        <v>0.02167</v>
+        <v>0.022</v>
       </c>
       <c r="H54" t="n">
         <v>19.9</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0225</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="55">
@@ -2258,7 +2258,7 @@
         <v>7</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02033</v>
+        <v>0.022</v>
       </c>
       <c r="H55" t="n">
         <v>21.6</v>
@@ -2291,13 +2291,13 @@
         <v>7</v>
       </c>
       <c r="G56" t="n">
-        <v>0.021</v>
+        <v>0.02100333333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="I56" t="n">
-        <v>0.02733</v>
+        <v>0.02733333333333333</v>
       </c>
     </row>
     <row r="57">
@@ -2324,13 +2324,13 @@
         <v>7</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01175</v>
+        <v>0.004500000000000001</v>
       </c>
       <c r="H57" t="n">
-        <v>17.15</v>
+        <v>17</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0165</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="58">
@@ -2357,7 +2357,7 @@
         <v>7</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0115</v>
+        <v>0.011</v>
       </c>
       <c r="H58" t="n">
         <v>22.1</v>
@@ -2390,7 +2390,7 @@
         <v>7</v>
       </c>
       <c r="G59" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="H59" t="n">
         <v>21.35</v>
@@ -2423,13 +2423,13 @@
         <v>7</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0142</v>
+        <v>0.017</v>
       </c>
       <c r="H60" t="n">
         <v>21.5</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0168</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="61">
@@ -2489,13 +2489,13 @@
         <v>7</v>
       </c>
       <c r="G62" t="n">
-        <v>0.00473</v>
+        <v>0.0047</v>
       </c>
       <c r="H62" t="n">
         <v>14.7</v>
       </c>
       <c r="I62" t="n">
-        <v>0.01375</v>
+        <v>0.0145</v>
       </c>
     </row>
     <row r="63">
@@ -2522,13 +2522,13 @@
         <v>7</v>
       </c>
       <c r="G63" t="n">
-        <v>0.00464</v>
+        <v>0.0046</v>
       </c>
       <c r="H63" t="n">
-        <v>16.425</v>
+        <v>16.73333333333333</v>
       </c>
       <c r="I63" t="n">
-        <v>0.01375</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="64">
@@ -2555,10 +2555,10 @@
         <v>7</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01062</v>
+        <v>0.01102</v>
       </c>
       <c r="H64" t="n">
-        <v>18.62857</v>
+        <v>18.82</v>
       </c>
       <c r="I64" t="n">
         <v>0.0171</v>
@@ -2588,13 +2588,13 @@
         <v>7</v>
       </c>
       <c r="G65" t="n">
-        <v>0.017</v>
+        <v>0.01885714285714286</v>
       </c>
       <c r="H65" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="I65" t="n">
-        <v>0.01471</v>
+        <v>0.01471428571428572</v>
       </c>
     </row>
     <row r="66">
@@ -2621,10 +2621,10 @@
         <v>7</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01485</v>
+        <v>0.0137</v>
       </c>
       <c r="H66" t="n">
-        <v>21</v>
+        <v>20.3</v>
       </c>
       <c r="I66" t="n">
         <v>0.018</v>
@@ -2654,10 +2654,10 @@
         <v>7</v>
       </c>
       <c r="G67" t="n">
-        <v>0.01567</v>
+        <v>0.017</v>
       </c>
       <c r="H67" t="n">
-        <v>13.625</v>
+        <v>16.4</v>
       </c>
       <c r="I67" t="n">
         <v>0.022</v>
@@ -2687,7 +2687,7 @@
         <v>7</v>
       </c>
       <c r="G68" t="n">
-        <v>0.00378</v>
+        <v>0.003666666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>13.4</v>
@@ -2720,13 +2720,13 @@
         <v>7</v>
       </c>
       <c r="G69" t="n">
-        <v>0.00392</v>
+        <v>0.0037</v>
       </c>
       <c r="H69" t="n">
-        <v>17.73333</v>
+        <v>18.3</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0156</v>
+        <v>0.01625</v>
       </c>
     </row>
     <row r="70">
@@ -2753,13 +2753,13 @@
         <v>7</v>
       </c>
       <c r="G70" t="n">
-        <v>0.01096</v>
+        <v>0.0097</v>
       </c>
       <c r="H70" t="n">
-        <v>21.525</v>
+        <v>21.96666666666667</v>
       </c>
       <c r="I70" t="n">
-        <v>0.01433</v>
+        <v>0.01433333333333333</v>
       </c>
     </row>
     <row r="71">
@@ -2786,13 +2786,13 @@
         <v>7</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02425</v>
+        <v>0.02533333333333333</v>
       </c>
       <c r="H71" t="n">
-        <v>22.475</v>
+        <v>23.06666666666667</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0176</v>
+        <v>0.01666666666666667</v>
       </c>
     </row>
     <row r="72">
@@ -2819,10 +2819,10 @@
         <v>7</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0165</v>
+        <v>0.019</v>
       </c>
       <c r="H72" t="n">
-        <v>18.7</v>
+        <v>17.9</v>
       </c>
       <c r="I72" t="n">
         <v>0.0225</v>
@@ -2852,13 +2852,13 @@
         <v>7</v>
       </c>
       <c r="G73" t="n">
-        <v>0.008750000000000001</v>
+        <v>0.01266666666666667</v>
       </c>
       <c r="H73" t="n">
         <v>11.9</v>
       </c>
       <c r="I73" t="n">
-        <v>0.0274</v>
+        <v>0.02833333333333333</v>
       </c>
     </row>
     <row r="74">
@@ -2885,7 +2885,7 @@
         <v>7</v>
       </c>
       <c r="G74" t="n">
-        <v>0.008500000000000001</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
         <v>10.9</v>
@@ -2918,7 +2918,7 @@
         <v>7</v>
       </c>
       <c r="G75" t="n">
-        <v>0.008030000000000001</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="H75" t="n">
         <v>16.65</v>
@@ -2951,13 +2951,13 @@
         <v>7</v>
       </c>
       <c r="G76" t="n">
-        <v>0.035</v>
+        <v>0.053</v>
       </c>
       <c r="H76" t="n">
         <v>23.7</v>
       </c>
       <c r="I76" t="n">
-        <v>0.01625</v>
+        <v>0.0165</v>
       </c>
     </row>
     <row r="77">
@@ -2984,7 +2984,7 @@
         <v>7</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03975</v>
+        <v>0.032</v>
       </c>
       <c r="H77" t="n">
         <v>19.25</v>
@@ -3017,10 +3017,10 @@
         <v>7</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0295</v>
+        <v>0.0315</v>
       </c>
       <c r="H78" t="n">
-        <v>19.93333</v>
+        <v>20.55</v>
       </c>
       <c r="I78" t="n">
         <v>0.02025</v>
@@ -3050,7 +3050,7 @@
         <v>7</v>
       </c>
       <c r="G79" t="n">
-        <v>0.026</v>
+        <v>0.023</v>
       </c>
       <c r="H79" t="n">
         <v>16.7</v>
@@ -3083,7 +3083,7 @@
         <v>7</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0063</v>
+        <v>0.007</v>
       </c>
       <c r="H80" t="n">
         <v>12.6</v>
@@ -3116,7 +3116,7 @@
         <v>7</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01525</v>
+        <v>0.0115</v>
       </c>
       <c r="H81" t="n">
         <v>16.9</v>
@@ -3149,13 +3149,13 @@
         <v>7</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01305</v>
+        <v>0.018</v>
       </c>
       <c r="H82" t="n">
         <v>17.8</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0185</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="83">
@@ -3182,13 +3182,13 @@
         <v>7</v>
       </c>
       <c r="G83" t="n">
-        <v>0.016025</v>
+        <v>0.0245</v>
       </c>
       <c r="H83" t="n">
         <v>19.6</v>
       </c>
       <c r="I83" t="n">
-        <v>0.01825</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="84">
@@ -3248,7 +3248,7 @@
         <v>7</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01475</v>
+        <v>0.0135</v>
       </c>
       <c r="H85" t="n">
         <v>14.55</v>
@@ -3281,7 +3281,7 @@
         <v>7</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0102</v>
+        <v>0.0098</v>
       </c>
       <c r="H86" t="n">
         <v>11.5</v>
@@ -3347,7 +3347,7 @@
         <v>7</v>
       </c>
       <c r="G88" t="n">
-        <v>0.018125</v>
+        <v>0.0185</v>
       </c>
       <c r="H88" t="n">
         <v>16.8</v>
@@ -3380,7 +3380,7 @@
         <v>7</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01825</v>
+        <v>0.019</v>
       </c>
       <c r="H89" t="n">
         <v>19.85</v>
@@ -3413,10 +3413,10 @@
         <v>7</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02033</v>
+        <v>0.022</v>
       </c>
       <c r="H90" t="n">
-        <v>19.35</v>
+        <v>18.5</v>
       </c>
       <c r="I90" t="n">
         <v>0.02</v>
@@ -3446,7 +3446,7 @@
         <v>7</v>
       </c>
       <c r="G91" t="n">
-        <v>0.006</v>
+        <v>0.0058</v>
       </c>
       <c r="H91" t="n">
         <v>16.7</v>
